--- a/Finance/The_Modellers_Korea/Analysis_101/Excel/1_4_Financial_Analysis_Excel_Framework.xlsx
+++ b/Finance/The_Modellers_Korea/Analysis_101/Excel/1_4_Financial_Analysis_Excel_Framework.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinyoung\Documents\Growth\Finance\The_Modellers_Korea\Analysis_101\Excel\"/>
@@ -25,7 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Marriott International</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,7 +62,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -66,13 +75,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9DFE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -81,11 +111,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -94,6 +139,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF9DFE3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -108,7 +158,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +184,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="B41F3A"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -368,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -379,7 +429,267 @@
     <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.19921875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:I5"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
